--- a/ope.ed.gov/2003/arrests-on-campus-virginia-colleges-and-universities-crime-2003.xlsx
+++ b/ope.ed.gov/2003/arrests-on-campus-virginia-colleges-and-universities-crime-2003.xlsx
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Arrests - On campus</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,13 +31,13 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Illegal weapons possession</t>
-  </si>
-  <si>
-    <t>Drug law violations</t>
-  </si>
-  <si>
-    <t>Liquor law violations</t>
+    <t>Illegal Weapons Possession</t>
+  </si>
+  <si>
+    <t>Drug Law Violations</t>
+  </si>
+  <si>
+    <t>Liquor Law Violations</t>
   </si>
   <si>
     <t>ACT College</t>
@@ -1399,34 +1396,58 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2003.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c s="1" r="F2">
+        <v>595.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -1437,13 +1458,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c s="1" r="D3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c s="1" r="F3">
         <v>595.0</v>
@@ -1466,13 +1487,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c s="1" r="D4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c s="1" r="F4">
         <v>595.0</v>
@@ -1492,19 +1513,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B5">
-        <v>419022.0</v>
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c s="1" r="D5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c s="1" r="F5">
-        <v>595.0</v>
+        <v>568.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -1521,19 +1542,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B6">
-        <v>231411.0</v>
+        <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D6">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F6">
-        <v>568.0</v>
+        <v>769.0</v>
       </c>
       <c s="1" r="G6">
         <v>0.0</v>
@@ -1553,13 +1574,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D7">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F7">
         <v>769.0</v>
@@ -1582,13 +1603,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D8">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F8">
         <v>769.0</v>
@@ -1611,13 +1632,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D9">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F9">
         <v>769.0</v>
@@ -1640,13 +1661,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F10">
         <v>769.0</v>
@@ -1669,13 +1690,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D11">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F11">
         <v>769.0</v>
@@ -1698,13 +1719,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D12">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F12">
         <v>769.0</v>
@@ -1727,13 +1748,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D13">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F13">
         <v>769.0</v>
@@ -1756,13 +1777,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D14">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F14">
         <v>769.0</v>
@@ -1782,19 +1803,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B15">
-        <v>232797.0</v>
+        <v>432348.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D15">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F15">
-        <v>769.0</v>
+        <v>355.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -1811,19 +1832,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B16">
-        <v>432348.0</v>
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F16">
-        <v>355.0</v>
+        <v>650.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -1840,19 +1861,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B17">
-        <v>419457.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D17">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F17">
-        <v>650.0</v>
+        <v>2849.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -1869,19 +1890,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B18">
-        <v>231420.0</v>
+        <v>427973.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F18">
-        <v>2849.0</v>
+        <v>199.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -1898,19 +1919,16 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B19">
-        <v>427973.0</v>
+        <v>445762.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>43</v>
-      </c>
-      <c s="1" r="F19">
-        <v>199.0</v>
+        <v>44</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -1927,16 +1945,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B20">
-        <v>445762.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D20">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c s="1" r="F20">
+        <v>204.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -1953,19 +1974,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B21">
-        <v>366793.0</v>
+        <v>231280.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F21">
-        <v>204.0</v>
+        <v>86.0</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -1982,19 +2003,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B22">
-        <v>231280.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F22">
-        <v>86.0</v>
+        <v>3678.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -2014,13 +2035,13 @@
         <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D23">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F23">
         <v>3678.0</v>
@@ -2043,13 +2064,13 @@
         <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D24">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F24">
         <v>3678.0</v>
@@ -2069,19 +2090,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B25">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D25">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F25">
-        <v>3678.0</v>
+        <v>731.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -2098,19 +2119,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B26">
-        <v>231554.0</v>
+        <v>233356.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F26">
-        <v>731.0</v>
+        <v>315.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -2127,19 +2148,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B27">
-        <v>233356.0</v>
+        <v>231572.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F27">
-        <v>315.0</v>
+        <v>44.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -2156,28 +2177,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B28">
-        <v>231572.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F28">
-        <v>44.0</v>
+        <v>1403.0</v>
       </c>
       <c s="1" r="G28">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H28">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="I28">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="29">
@@ -2185,28 +2206,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B29">
-        <v>231581.0</v>
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F29">
-        <v>1403.0</v>
+        <v>528.0</v>
       </c>
       <c s="1" r="G29">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H29">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I29">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -2214,19 +2235,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B30">
-        <v>231828.0</v>
+        <v>231785.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F30">
-        <v>528.0</v>
+        <v>417.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -2243,25 +2264,25 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B31">
-        <v>231785.0</v>
+        <v>441858.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F31">
-        <v>417.0</v>
+        <v>93.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
       </c>
       <c s="1" r="H31">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I31">
         <v>0.0</v>
@@ -2272,25 +2293,25 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B32">
-        <v>441858.0</v>
+        <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F32">
-        <v>93.0</v>
+        <v>4582.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
       </c>
       <c s="1" r="H32">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I32">
         <v>0.0</v>
@@ -2304,13 +2325,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D33">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F33">
         <v>4582.0</v>
@@ -2333,13 +2354,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D34">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F34">
         <v>4582.0</v>
@@ -2359,19 +2380,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B35">
-        <v>231697.0</v>
+        <v>420024.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D35">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F35">
-        <v>4582.0</v>
+        <v>189.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -2388,19 +2409,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B36">
-        <v>420024.0</v>
+        <v>377449.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F36">
-        <v>189.0</v>
+        <v>251.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -2417,19 +2438,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B37">
-        <v>377449.0</v>
+        <v>377458.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F37">
-        <v>251.0</v>
+        <v>403.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -2446,19 +2467,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B38">
-        <v>377458.0</v>
+        <v>427982.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F38">
-        <v>403.0</v>
+        <v>296.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -2475,19 +2496,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B39">
-        <v>427982.0</v>
+        <v>440378.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F39">
-        <v>296.0</v>
+        <v>155.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -2504,19 +2525,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B40">
-        <v>440378.0</v>
+        <v>232016.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F40">
-        <v>155.0</v>
+        <v>247.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -2533,19 +2554,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B41">
-        <v>232016.0</v>
+        <v>427894.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D41">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F41">
-        <v>247.0</v>
+        <v>94.0</v>
       </c>
       <c s="1" r="G41">
         <v>0.0</v>
@@ -2562,28 +2583,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B42">
-        <v>427894.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D42">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F42">
-        <v>94.0</v>
+        <v>4812.0</v>
       </c>
       <c s="1" r="G42">
         <v>0.0</v>
       </c>
       <c s="1" r="H42">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I42">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="43">
@@ -2591,25 +2612,25 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B43">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D43">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F43">
-        <v>4812.0</v>
+        <v>7749.0</v>
       </c>
       <c s="1" r="G43">
         <v>0.0</v>
       </c>
       <c s="1" r="H43">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="I43">
         <v>13.0</v>
@@ -2620,28 +2641,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B44">
-        <v>231624.0</v>
+        <v>377403.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D44">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F44">
-        <v>7749.0</v>
+        <v>41.0</v>
       </c>
       <c s="1" r="G44">
         <v>0.0</v>
       </c>
       <c s="1" r="H44">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I44">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
@@ -2649,19 +2670,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B45">
-        <v>377403.0</v>
+        <v>231873.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D45">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F45">
-        <v>41.0</v>
+        <v>1446.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -2678,19 +2699,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B46">
-        <v>231873.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F46">
-        <v>1446.0</v>
+        <v>4089.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -2707,19 +2728,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B47">
-        <v>231882.0</v>
+        <v>232724.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F47">
-        <v>4089.0</v>
+        <v>92.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -2736,19 +2757,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B48">
-        <v>232724.0</v>
+        <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F48">
-        <v>92.0</v>
+        <v>869.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -2768,13 +2789,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D49">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F49">
         <v>869.0</v>
@@ -2794,19 +2815,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B50">
-        <v>440536.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D50">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F50">
-        <v>869.0</v>
+        <v>1245.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -2815,7 +2836,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I50">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
@@ -2823,19 +2844,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B51">
-        <v>232043.0</v>
+        <v>232052.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F51">
-        <v>1245.0</v>
+        <v>807.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -2844,7 +2865,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I51">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
@@ -2852,19 +2873,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B52">
-        <v>232052.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F52">
-        <v>807.0</v>
+        <v>638.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -2881,19 +2902,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B53">
-        <v>231970.0</v>
+        <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F53">
-        <v>638.0</v>
+        <v>1167.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -2913,13 +2934,13 @@
         <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D54">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F54">
         <v>1167.0</v>
@@ -2939,19 +2960,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B55">
-        <v>248943.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D55">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F55">
-        <v>1167.0</v>
+        <v>3346.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
@@ -2971,13 +2992,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D56">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F56">
         <v>3346.0</v>
@@ -3000,13 +3021,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D57">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F57">
         <v>3346.0</v>
@@ -3029,13 +3050,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D58">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F58">
         <v>3346.0</v>
@@ -3058,13 +3079,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D59">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F59">
         <v>3346.0</v>
@@ -3087,13 +3108,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D60">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F60">
         <v>3346.0</v>
@@ -3116,13 +3137,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D61">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F61">
         <v>3346.0</v>
@@ -3145,13 +3166,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D62">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F62">
         <v>3346.0</v>
@@ -3174,13 +3195,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D63">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F63">
         <v>3346.0</v>
@@ -3200,19 +3221,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B64">
-        <v>248934.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D64">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F64">
-        <v>3346.0</v>
+        <v>154.0</v>
       </c>
       <c s="1" r="G64">
         <v>0.0</v>
@@ -3229,19 +3250,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B65">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D65">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F65">
-        <v>154.0</v>
+        <v>927.0</v>
       </c>
       <c s="1" r="G65">
         <v>0.0</v>
@@ -3258,19 +3279,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B66">
-        <v>232025.0</v>
+        <v>437149.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D66">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F66">
-        <v>927.0</v>
+        <v>56.0</v>
       </c>
       <c s="1" r="G66">
         <v>0.0</v>
@@ -3287,19 +3308,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B67">
-        <v>437149.0</v>
+        <v>442310.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D67">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F67">
-        <v>56.0</v>
+        <v>728.0</v>
       </c>
       <c s="1" r="G67">
         <v>0.0</v>
@@ -3316,19 +3337,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B68">
-        <v>442310.0</v>
+        <v>438647.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D68">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F68">
-        <v>728.0</v>
+        <v>837.0</v>
       </c>
       <c s="1" r="G68">
         <v>0.0</v>
@@ -3345,19 +3366,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B69">
-        <v>438647.0</v>
+        <v>232502.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D69">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F69">
-        <v>837.0</v>
+        <v>957.0</v>
       </c>
       <c s="1" r="G69">
         <v>0.0</v>
@@ -3374,28 +3395,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B70">
-        <v>232502.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D70">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F70">
-        <v>957.0</v>
+        <v>954.0</v>
       </c>
       <c s="1" r="G70">
         <v>0.0</v>
       </c>
       <c s="1" r="H70">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="I70">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="71">
@@ -3403,28 +3424,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B71">
-        <v>232089.0</v>
+        <v>233329.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D71">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F71">
-        <v>954.0</v>
+        <v>235.0</v>
       </c>
       <c s="1" r="G71">
         <v>0.0</v>
       </c>
       <c s="1" r="H71">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I71">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
@@ -3432,19 +3453,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B72">
-        <v>233329.0</v>
+        <v>382957.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D72">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F72">
-        <v>235.0</v>
+        <v>81.0</v>
       </c>
       <c s="1" r="G72">
         <v>0.0</v>
@@ -3461,28 +3482,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B73">
-        <v>382957.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D73">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F73">
-        <v>81.0</v>
+        <v>28246.0</v>
       </c>
       <c s="1" r="G73">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="H73">
-        <v>0.0</v>
+        <v>131.0</v>
       </c>
       <c s="1" r="I73">
-        <v>0.0</v>
+        <v>133.0</v>
       </c>
     </row>
     <row r="74">
@@ -3490,28 +3511,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B74">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D74">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F74">
-        <v>28246.0</v>
+        <v>4520.0</v>
       </c>
       <c s="1" r="G74">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H74">
-        <v>131.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I74">
-        <v>133.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
@@ -3522,13 +3543,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D75">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F75">
         <v>4520.0</v>
@@ -3548,19 +3569,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B76">
-        <v>232195.0</v>
+        <v>406495.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D76">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F76">
-        <v>4520.0</v>
+        <v>283.0</v>
       </c>
       <c s="1" r="G76">
         <v>0.0</v>
@@ -3577,28 +3598,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B77">
-        <v>406495.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D77">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F77">
-        <v>283.0</v>
+        <v>1039.0</v>
       </c>
       <c s="1" r="G77">
         <v>0.0</v>
       </c>
       <c s="1" r="H77">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c s="1" r="I77">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="78">
@@ -3606,28 +3627,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B78">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D78">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F78">
-        <v>1039.0</v>
+        <v>5797.0</v>
       </c>
       <c s="1" r="G78">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H78">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I78">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="79">
@@ -3638,25 +3659,25 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D79">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F79">
         <v>5797.0</v>
       </c>
       <c s="1" r="G79">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H79">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I79">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -3667,13 +3688,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C80">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D80">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E80">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F80">
         <v>5797.0</v>
@@ -3693,19 +3714,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B81">
-        <v>232265.0</v>
+        <v>431266.0</v>
       </c>
       <c t="s" s="1" r="C81">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D81">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E81">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F81">
-        <v>5797.0</v>
+        <v>115.0</v>
       </c>
       <c s="1" r="G81">
         <v>0.0</v>
@@ -3722,19 +3743,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B82">
-        <v>431266.0</v>
+        <v>233189.0</v>
       </c>
       <c t="s" s="1" r="C82">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D82">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E82">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F82">
-        <v>115.0</v>
+        <v>276.0</v>
       </c>
       <c s="1" r="G82">
         <v>0.0</v>
@@ -3751,19 +3772,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B83">
-        <v>233189.0</v>
+        <v>377421.0</v>
       </c>
       <c t="s" s="1" r="C83">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D83">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E83">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F83">
-        <v>276.0</v>
+        <v>44.0</v>
       </c>
       <c s="1" r="G83">
         <v>0.0</v>
@@ -3780,19 +3801,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B84">
-        <v>377421.0</v>
+        <v>232292.0</v>
       </c>
       <c t="s" s="1" r="C84">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D84">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E84">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F84">
-        <v>44.0</v>
+        <v>47.0</v>
       </c>
       <c s="1" r="G84">
         <v>0.0</v>
@@ -3809,19 +3830,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B85">
-        <v>232292.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C85">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="1" r="D85">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E85">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c s="1" r="F85">
-        <v>47.0</v>
+        <v>1090.0</v>
       </c>
       <c s="1" r="G85">
         <v>0.0</v>
@@ -3830,7 +3851,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I85">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="86">
@@ -3838,19 +3859,16 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B86">
-        <v>232308.0</v>
+        <v>445869.0</v>
       </c>
       <c t="s" s="1" r="C86">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c s="1" r="D86">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E86">
-        <v>177</v>
-      </c>
-      <c s="1" r="F86">
-        <v>1090.0</v>
+        <v>178</v>
       </c>
       <c s="1" r="G86">
         <v>0.0</v>
@@ -3859,7 +3877,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I86">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
@@ -3867,16 +3885,16 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B87">
-        <v>445869.0</v>
+        <v>418977.0</v>
       </c>
       <c t="s" s="1" r="C87">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="1" r="D87">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E87">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="1" r="G87">
         <v>0.0</v>
@@ -3893,16 +3911,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B88">
-        <v>418977.0</v>
+        <v>441964.0</v>
       </c>
       <c t="s" s="1" r="C88">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c s="1" r="D88">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E88">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c s="1" r="F88">
+        <v>165.0</v>
       </c>
       <c s="1" r="G88">
         <v>0.0</v>
@@ -3919,19 +3940,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B89">
-        <v>441964.0</v>
+        <v>368601.0</v>
       </c>
       <c t="s" s="1" r="C89">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="1" r="D89">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E89">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="1" r="F89">
-        <v>165.0</v>
+        <v>474.0</v>
       </c>
       <c s="1" r="G89">
         <v>0.0</v>
@@ -3948,19 +3969,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B90">
-        <v>368601.0</v>
+        <v>437051.0</v>
       </c>
       <c t="s" s="1" r="C90">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="1" r="D90">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E90">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="1" r="F90">
-        <v>474.0</v>
+        <v>315.0</v>
       </c>
       <c s="1" r="G90">
         <v>0.0</v>
@@ -3977,19 +3998,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B91">
-        <v>437051.0</v>
+        <v>441955.0</v>
       </c>
       <c t="s" s="1" r="C91">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="1" r="D91">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E91">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="1" r="F91">
-        <v>315.0</v>
+        <v>363.0</v>
       </c>
       <c s="1" r="G91">
         <v>0.0</v>
@@ -4006,19 +4027,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B92">
-        <v>441955.0</v>
+        <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C92">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="1" r="D92">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E92">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="1" r="F92">
-        <v>363.0</v>
+        <v>11132.0</v>
       </c>
       <c s="1" r="G92">
         <v>0.0</v>
@@ -4038,13 +4059,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C93">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="1" r="D93">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E93">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="1" r="F93">
         <v>11132.0</v>
@@ -4056,7 +4077,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I93">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="94">
@@ -4067,13 +4088,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C94">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="1" r="D94">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E94">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="1" r="F94">
         <v>11132.0</v>
@@ -4085,7 +4106,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I94">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="95">
@@ -4093,28 +4114,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B95">
-        <v>232414.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C95">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="1" r="D95">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E95">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="1" r="F95">
-        <v>11132.0</v>
+        <v>16203.0</v>
       </c>
       <c s="1" r="G95">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="H95">
-        <v>0.0</v>
+        <v>62.0</v>
       </c>
       <c s="1" r="I95">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="96">
@@ -4125,25 +4146,25 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C96">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c s="1" r="D96">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E96">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="1" r="F96">
         <v>16203.0</v>
       </c>
       <c s="1" r="G96">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H96">
-        <v>62.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I96">
-        <v>68.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="97">
@@ -4154,13 +4175,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C97">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c s="1" r="D97">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E97">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="1" r="F97">
         <v>16203.0</v>
@@ -4180,19 +4201,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B98">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C98">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c s="1" r="D98">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E98">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c s="1" r="F98">
-        <v>16203.0</v>
+        <v>635.0</v>
       </c>
       <c s="1" r="G98">
         <v>0.0</v>
@@ -4201,7 +4222,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I98">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="99">
@@ -4212,25 +4233,25 @@
         <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C99">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="1" r="D99">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E99">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c s="1" r="F99">
         <v>635.0</v>
       </c>
       <c s="1" r="G99">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="H99">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I99">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="100">
@@ -4238,28 +4259,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B100">
-        <v>231837.0</v>
+        <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C100">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="1" r="D100">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E100">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="1" r="F100">
-        <v>635.0</v>
+        <v>6054.0</v>
       </c>
       <c s="1" r="G100">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H100">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I100">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="101">
@@ -4270,13 +4291,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C101">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c s="1" r="D101">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E101">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c s="1" r="F101">
         <v>6054.0</v>
@@ -4299,13 +4320,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C102">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c s="1" r="D102">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E102">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="1" r="F102">
         <v>6054.0</v>
@@ -4325,19 +4346,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B103">
-        <v>232450.0</v>
+        <v>232469.0</v>
       </c>
       <c t="s" s="1" r="C103">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="1" r="D103">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E103">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="1" r="F103">
-        <v>6054.0</v>
+        <v>831.0</v>
       </c>
       <c s="1" r="G103">
         <v>0.0</v>
@@ -4354,28 +4375,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B104">
-        <v>232469.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C104">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c s="1" r="D104">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E104">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="1" r="F104">
-        <v>831.0</v>
+        <v>9050.0</v>
       </c>
       <c s="1" r="G104">
         <v>0.0</v>
       </c>
       <c s="1" r="H104">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I104">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="105">
@@ -4383,28 +4404,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B105">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C105">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c s="1" r="D105">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E105">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c s="1" r="F105">
-        <v>9050.0</v>
+        <v>4252.0</v>
       </c>
       <c s="1" r="G105">
         <v>0.0</v>
       </c>
       <c s="1" r="H105">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="I105">
-        <v>2.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="106">
@@ -4415,13 +4436,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C106">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c s="1" r="D106">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E106">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c s="1" r="F106">
         <v>4252.0</v>
@@ -4430,10 +4451,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H106">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I106">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="107">
@@ -4441,19 +4462,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B107">
-        <v>232566.0</v>
+        <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C107">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c s="1" r="D107">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E107">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c s="1" r="F107">
-        <v>4252.0</v>
+        <v>5070.0</v>
       </c>
       <c s="1" r="G107">
         <v>0.0</v>
@@ -4473,13 +4494,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C108">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="1" r="D108">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E108">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c s="1" r="F108">
         <v>5070.0</v>
@@ -4499,28 +4520,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B109">
-        <v>232575.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C109">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c s="1" r="D109">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="1" r="E109">
+        <v>224</v>
+      </c>
+      <c s="1" r="F109">
+        <v>2009.0</v>
+      </c>
+      <c s="1" r="G109">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H109">
         <v>2.0</v>
       </c>
-      <c t="s" s="1" r="E109">
-        <v>223</v>
-      </c>
-      <c s="1" r="F109">
-        <v>5070.0</v>
-      </c>
-      <c s="1" r="G109">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H109">
-        <v>0.0</v>
-      </c>
       <c s="1" r="I109">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="110">
@@ -4528,28 +4549,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B110">
-        <v>232609.0</v>
+        <v>232618.0</v>
       </c>
       <c t="s" s="1" r="C110">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c s="1" r="D110">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E110">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c s="1" r="F110">
-        <v>2009.0</v>
+        <v>158.0</v>
       </c>
       <c s="1" r="G110">
         <v>0.0</v>
       </c>
       <c s="1" r="H110">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I110">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="111">
@@ -4557,19 +4578,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B111">
-        <v>232618.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C111">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c s="1" r="D111">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E111">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="1" r="F111">
-        <v>158.0</v>
+        <v>1731.0</v>
       </c>
       <c s="1" r="G111">
         <v>0.0</v>
@@ -4586,19 +4607,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B112">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C112">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c s="1" r="D112">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E112">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c s="1" r="F112">
-        <v>1731.0</v>
+        <v>3741.0</v>
       </c>
       <c s="1" r="G112">
         <v>0.0</v>
@@ -4615,19 +4636,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B113">
-        <v>232706.0</v>
+        <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C113">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c s="1" r="D113">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E113">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c s="1" r="F113">
-        <v>3741.0</v>
+        <v>1055.0</v>
       </c>
       <c s="1" r="G113">
         <v>0.0</v>
@@ -4647,13 +4668,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C114">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c s="1" r="D114">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E114">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c s="1" r="F114">
         <v>1055.0</v>
@@ -4676,13 +4697,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C115">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c s="1" r="D115">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E115">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="1" r="F115">
         <v>1055.0</v>
@@ -4702,19 +4723,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B116">
-        <v>231642.0</v>
+        <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C116">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="1" r="D116">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E116">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="1" r="F116">
-        <v>1055.0</v>
+        <v>1088.0</v>
       </c>
       <c s="1" r="G116">
         <v>0.0</v>
@@ -4734,13 +4755,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C117">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="1" r="D117">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E117">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c s="1" r="F117">
         <v>1088.0</v>
@@ -4763,13 +4784,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C118">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c s="1" r="D118">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E118">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="1" r="F118">
         <v>1088.0</v>
@@ -4789,19 +4810,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B119">
-        <v>131742.0</v>
+        <v>233091.0</v>
       </c>
       <c t="s" s="1" r="C119">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="1" r="D119">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E119">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="1" r="F119">
-        <v>1088.0</v>
+        <v>202.0</v>
       </c>
       <c s="1" r="G119">
         <v>0.0</v>
@@ -4818,19 +4839,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B120">
-        <v>233091.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C120">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c s="1" r="D120">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E120">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c s="1" r="F120">
-        <v>202.0</v>
+        <v>2875.0</v>
       </c>
       <c s="1" r="G120">
         <v>0.0</v>
@@ -4847,19 +4868,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B121">
-        <v>232788.0</v>
+        <v>419004.0</v>
       </c>
       <c t="s" s="1" r="C121">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c s="1" r="D121">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E121">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="1" r="F121">
-        <v>2875.0</v>
+        <v>135.0</v>
       </c>
       <c s="1" r="G121">
         <v>0.0</v>
@@ -4876,19 +4897,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B122">
-        <v>419004.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C122">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="1" r="D122">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E122">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="1" r="F122">
-        <v>135.0</v>
+        <v>4327.0</v>
       </c>
       <c s="1" r="G122">
         <v>0.0</v>
@@ -4905,19 +4926,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B123">
-        <v>232867.0</v>
+        <v>433299.0</v>
       </c>
       <c t="s" s="1" r="C123">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="1" r="D123">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E123">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c s="1" r="F123">
-        <v>4327.0</v>
+        <v>52.0</v>
       </c>
       <c s="1" r="G123">
         <v>0.0</v>
@@ -4934,19 +4955,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B124">
-        <v>433299.0</v>
+        <v>233417.0</v>
       </c>
       <c t="s" s="1" r="C124">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="1" r="D124">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E124">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="1" r="F124">
-        <v>52.0</v>
+        <v>45.0</v>
       </c>
       <c s="1" r="G124">
         <v>0.0</v>
@@ -4963,25 +4984,25 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B125">
-        <v>233417.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C125">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c s="1" r="D125">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E125">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c s="1" r="F125">
-        <v>45.0</v>
+        <v>6846.0</v>
       </c>
       <c s="1" r="G125">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H125">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I125">
         <v>0.0</v>
@@ -4992,28 +5013,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B126">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C126">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c s="1" r="D126">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E126">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c s="1" r="F126">
-        <v>6846.0</v>
+        <v>38097.0</v>
       </c>
       <c s="1" r="G126">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H126">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I126">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="127">
@@ -5024,19 +5045,19 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C127">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c s="1" r="D127">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E127">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c s="1" r="F127">
         <v>38097.0</v>
       </c>
       <c s="1" r="G127">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="H127">
         <v>0.0</v>
@@ -5053,25 +5074,25 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C128">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c s="1" r="D128">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E128">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c s="1" r="F128">
         <v>38097.0</v>
       </c>
       <c s="1" r="G128">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H128">
         <v>0.0</v>
       </c>
       <c s="1" r="I128">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="129">
@@ -5082,13 +5103,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C129">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c s="1" r="D129">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E129">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c s="1" r="F129">
         <v>38097.0</v>
@@ -5111,13 +5132,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C130">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c s="1" r="D130">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E130">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c s="1" r="F130">
         <v>38097.0</v>
@@ -5137,28 +5158,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B131">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C131">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c s="1" r="D131">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E131">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="1" r="F131">
-        <v>38097.0</v>
+        <v>20802.0</v>
       </c>
       <c s="1" r="G131">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="H131">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="I131">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="132">
@@ -5166,28 +5187,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B132">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C132">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c s="1" r="D132">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E132">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="1" r="F132">
-        <v>20802.0</v>
+        <v>3492.0</v>
       </c>
       <c s="1" r="G132">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H132">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I132">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="133">
@@ -5195,19 +5216,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B133">
-        <v>233019.0</v>
+        <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C133">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c s="1" r="D133">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E133">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="1" r="F133">
-        <v>3492.0</v>
+        <v>1636.0</v>
       </c>
       <c s="1" r="G133">
         <v>0.0</v>
@@ -5227,13 +5248,13 @@
         <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C134">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="1" r="D134">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E134">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="1" r="F134">
         <v>1636.0</v>
@@ -5253,19 +5274,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B135">
-        <v>233037.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C135">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="1" r="D135">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E135">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="1" r="F135">
-        <v>1636.0</v>
+        <v>4343.0</v>
       </c>
       <c s="1" r="G135">
         <v>0.0</v>
@@ -5282,28 +5303,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B136">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C136">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="1" r="D136">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E136">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c s="1" r="F136">
-        <v>4343.0</v>
+        <v>9219.0</v>
       </c>
       <c s="1" r="G136">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="H136">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c s="1" r="I136">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="137">
@@ -5311,28 +5332,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B137">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C137">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c s="1" r="D137">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E137">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c s="1" r="F137">
-        <v>9219.0</v>
+        <v>737.0</v>
       </c>
       <c s="1" r="G137">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H137">
-        <v>29.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I137">
-        <v>45.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="138">
@@ -5340,19 +5361,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B138">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C138">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c s="1" r="D138">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E138">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c s="1" r="F138">
-        <v>737.0</v>
+        <v>1118.0</v>
       </c>
       <c s="1" r="G138">
         <v>0.0</v>
@@ -5361,7 +5382,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I138">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="139">
@@ -5369,19 +5390,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B139">
-        <v>233295.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C139">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c s="1" r="D139">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E139">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="1" r="F139">
-        <v>1118.0</v>
+        <v>2824.0</v>
       </c>
       <c s="1" r="G139">
         <v>0.0</v>
@@ -5398,19 +5419,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B140">
-        <v>233310.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C140">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c s="1" r="D140">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E140">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="1" r="F140">
-        <v>2824.0</v>
+        <v>3173.0</v>
       </c>
       <c s="1" r="G140">
         <v>0.0</v>
@@ -5430,13 +5451,13 @@
         <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C141">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c s="1" r="D141">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E141">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c s="1" r="F141">
         <v>3173.0</v>
@@ -5456,19 +5477,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B142">
-        <v>231651.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C142">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c s="1" r="D142">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E142">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c s="1" r="F142">
-        <v>3173.0</v>
+        <v>1342.0</v>
       </c>
       <c s="1" r="G142">
         <v>0.0</v>
@@ -5485,19 +5506,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B143">
-        <v>233338.0</v>
+        <v>437769.0</v>
       </c>
       <c t="s" s="1" r="C143">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c s="1" r="D143">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E143">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c s="1" r="F143">
-        <v>1342.0</v>
+        <v>480.0</v>
       </c>
       <c s="1" r="G143">
         <v>0.0</v>
@@ -5514,19 +5535,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B144">
-        <v>437769.0</v>
+        <v>233408.0</v>
       </c>
       <c t="s" s="1" r="C144">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c s="1" r="D144">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E144">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c s="1" r="F144">
-        <v>480.0</v>
+        <v>154.0</v>
       </c>
       <c s="1" r="G144">
         <v>0.0</v>
@@ -5543,19 +5564,16 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B145">
-        <v>233408.0</v>
+        <v>435213.0</v>
       </c>
       <c t="s" s="1" r="C145">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c s="1" r="D145">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E145">
-        <v>295</v>
-      </c>
-      <c s="1" r="F145">
-        <v>154.0</v>
+        <v>296</v>
       </c>
       <c s="1" r="G145">
         <v>0.0</v>
@@ -5572,22 +5590,25 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B146">
-        <v>435213.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C146">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c s="1" r="D146">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E146">
-        <v>297</v>
+        <v>298</v>
+      </c>
+      <c s="1" r="F146">
+        <v>1899.0</v>
       </c>
       <c s="1" r="G146">
         <v>0.0</v>
       </c>
       <c s="1" r="H146">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c s="1" r="I146">
         <v>0.0</v>
@@ -5598,25 +5619,25 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B147">
-        <v>233426.0</v>
+        <v>441876.0</v>
       </c>
       <c t="s" s="1" r="C147">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c s="1" r="D147">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E147">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c s="1" r="F147">
-        <v>1899.0</v>
+        <v>57.0</v>
       </c>
       <c s="1" r="G147">
         <v>0.0</v>
       </c>
       <c s="1" r="H147">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I147">
         <v>0.0</v>
@@ -5627,28 +5648,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B148">
-        <v>441876.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C148">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c s="1" r="D148">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E148">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c s="1" r="F148">
-        <v>57.0</v>
+        <v>475.0</v>
       </c>
       <c s="1" r="G148">
         <v>0.0</v>
       </c>
       <c s="1" r="H148">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I148">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="149">
@@ -5656,28 +5677,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B149">
-        <v>233499.0</v>
+        <v>234216.0</v>
       </c>
       <c t="s" s="1" r="C149">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c s="1" r="D149">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E149">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c s="1" r="F149">
-        <v>475.0</v>
+        <v>609.0</v>
       </c>
       <c s="1" r="G149">
         <v>0.0</v>
       </c>
       <c s="1" r="H149">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I149">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="150">
@@ -5685,19 +5706,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B150">
-        <v>234216.0</v>
+        <v>232885.0</v>
       </c>
       <c t="s" s="1" r="C150">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c s="1" r="D150">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E150">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c s="1" r="F150">
-        <v>609.0</v>
+        <v>262.0</v>
       </c>
       <c s="1" r="G150">
         <v>0.0</v>
@@ -5714,22 +5735,22 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B151">
-        <v>232885.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C151">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c s="1" r="D151">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E151">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c s="1" r="F151">
-        <v>262.0</v>
+        <v>2851.0</v>
       </c>
       <c s="1" r="G151">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H151">
         <v>0.0</v>
@@ -5743,22 +5764,22 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B152">
-        <v>233541.0</v>
+        <v>261931.0</v>
       </c>
       <c t="s" s="1" r="C152">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c s="1" r="D152">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E152">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c s="1" r="F152">
-        <v>2851.0</v>
+        <v>353.0</v>
       </c>
       <c s="1" r="G152">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H152">
         <v>0.0</v>
@@ -5772,19 +5793,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B153">
-        <v>261931.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C153">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c s="1" r="D153">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E153">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c s="1" r="F153">
-        <v>353.0</v>
+        <v>579.0</v>
       </c>
       <c s="1" r="G153">
         <v>0.0</v>
@@ -5793,7 +5814,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I153">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="154">
@@ -5801,19 +5822,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B154">
-        <v>233611.0</v>
+        <v>233082.0</v>
       </c>
       <c t="s" s="1" r="C154">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c s="1" r="D154">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E154">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c s="1" r="F154">
-        <v>579.0</v>
+        <v>179.0</v>
       </c>
       <c s="1" r="G154">
         <v>0.0</v>
@@ -5822,7 +5843,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I154">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="155">
@@ -5830,19 +5851,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B155">
-        <v>233082.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C155">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c s="1" r="D155">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E155">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c s="1" r="F155">
-        <v>179.0</v>
+        <v>4894.0</v>
       </c>
       <c s="1" r="G155">
         <v>0.0</v>
@@ -5851,7 +5872,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I155">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="156">
@@ -5859,19 +5880,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B156">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C156">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c s="1" r="D156">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E156">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c s="1" r="F156">
-        <v>4894.0</v>
+        <v>3993.0</v>
       </c>
       <c s="1" r="G156">
         <v>0.0</v>
@@ -5880,7 +5901,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I156">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="157">
@@ -5888,19 +5909,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B157">
-        <v>233648.0</v>
+        <v>233657.0</v>
       </c>
       <c t="s" s="1" r="C157">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c s="1" r="D157">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E157">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c s="1" r="F157">
-        <v>3993.0</v>
+        <v>119.0</v>
       </c>
       <c s="1" r="G157">
         <v>0.0</v>
@@ -5917,19 +5938,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B158">
-        <v>233657.0</v>
+        <v>233666.0</v>
       </c>
       <c t="s" s="1" r="C158">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c s="1" r="D158">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E158">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c s="1" r="F158">
-        <v>119.0</v>
+        <v>26.0</v>
       </c>
       <c s="1" r="G158">
         <v>0.0</v>
@@ -5946,19 +5967,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B159">
-        <v>233666.0</v>
+        <v>438498.0</v>
       </c>
       <c t="s" s="1" r="C159">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c s="1" r="D159">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E159">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c s="1" r="F159">
-        <v>26.0</v>
+        <v>641.0</v>
       </c>
       <c s="1" r="G159">
         <v>0.0</v>
@@ -5975,19 +5996,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B160">
-        <v>438498.0</v>
+        <v>231721.0</v>
       </c>
       <c t="s" s="1" r="C160">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c s="1" r="D160">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E160">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c s="1" r="F160">
-        <v>641.0</v>
+        <v>32.0</v>
       </c>
       <c s="1" r="G160">
         <v>0.0</v>
@@ -6004,19 +6025,16 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B161">
-        <v>231721.0</v>
+        <v>232593.0</v>
       </c>
       <c t="s" s="1" r="C161">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c s="1" r="D161">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E161">
-        <v>327</v>
-      </c>
-      <c s="1" r="F161">
-        <v>32.0</v>
+        <v>328</v>
       </c>
       <c s="1" r="G161">
         <v>0.0</v>
@@ -6033,16 +6051,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B162">
-        <v>232593.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C162">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c s="1" r="D162">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E162">
-        <v>329</v>
+        <v>330</v>
+      </c>
+      <c s="1" r="F162">
+        <v>709.0</v>
       </c>
       <c s="1" r="G162">
         <v>0.0</v>
@@ -6051,7 +6072,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I162">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="163">
@@ -6059,19 +6080,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B163">
-        <v>233718.0</v>
+        <v>233286.0</v>
       </c>
       <c t="s" s="1" r="C163">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c s="1" r="D163">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E163">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c s="1" r="F163">
-        <v>709.0</v>
+        <v>22.0</v>
       </c>
       <c s="1" r="G163">
         <v>0.0</v>
@@ -6080,7 +6101,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I163">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="164">
@@ -6088,19 +6109,16 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B164">
-        <v>233286.0</v>
+        <v>444884.0</v>
       </c>
       <c t="s" s="1" r="C164">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c s="1" r="D164">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E164">
-        <v>333</v>
-      </c>
-      <c s="1" r="F164">
-        <v>22.0</v>
+        <v>334</v>
       </c>
       <c s="1" r="G164">
         <v>0.0</v>
@@ -6117,16 +6135,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B165">
-        <v>444884.0</v>
+        <v>248970.0</v>
       </c>
       <c t="s" s="1" r="C165">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c s="1" r="D165">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E165">
-        <v>335</v>
+        <v>336</v>
+      </c>
+      <c s="1" r="F165">
+        <v>289.0</v>
       </c>
       <c s="1" r="G165">
         <v>0.0</v>
@@ -6143,19 +6164,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B166">
-        <v>248970.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C166">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c s="1" r="D166">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E166">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c s="1" r="F166">
-        <v>289.0</v>
+        <v>852.0</v>
       </c>
       <c s="1" r="G166">
         <v>0.0</v>
@@ -6172,19 +6193,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B167">
-        <v>440341.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C167">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c s="1" r="D167">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E167">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c s="1" r="F167">
-        <v>852.0</v>
+        <v>1703.0</v>
       </c>
       <c s="1" r="G167">
         <v>0.0</v>
@@ -6193,7 +6214,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I167">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="168">
@@ -6201,19 +6222,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B168">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C168">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c s="1" r="D168">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E168">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c s="1" r="F168">
-        <v>1703.0</v>
+        <v>7889.0</v>
       </c>
       <c s="1" r="G168">
         <v>0.0</v>
@@ -6222,7 +6243,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I168">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="169">
@@ -6230,19 +6251,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B169">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C169">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c s="1" r="D169">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E169">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c s="1" r="F169">
-        <v>7889.0</v>
+        <v>23088.0</v>
       </c>
       <c s="1" r="G169">
         <v>0.0</v>
@@ -6251,7 +6272,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I169">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="170">
@@ -6262,13 +6283,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C170">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c s="1" r="D170">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E170">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c s="1" r="F170">
         <v>23088.0</v>
@@ -6291,13 +6312,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C171">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c s="1" r="D171">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E171">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c s="1" r="F171">
         <v>23088.0</v>
@@ -6306,7 +6327,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H171">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I171">
         <v>0.0</v>
@@ -6320,13 +6341,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C172">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c s="1" r="D172">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E172">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c s="1" r="F172">
         <v>23088.0</v>
@@ -6335,7 +6356,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H172">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I172">
         <v>0.0</v>
@@ -6349,13 +6370,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C173">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c s="1" r="D173">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E173">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c s="1" r="F173">
         <v>23088.0</v>
@@ -6375,19 +6396,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B174">
-        <v>233772.0</v>
+        <v>232919.0</v>
       </c>
       <c t="s" s="1" r="C174">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c s="1" r="D174">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E174">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c s="1" r="F174">
-        <v>23088.0</v>
+        <v>63.0</v>
       </c>
       <c s="1" r="G174">
         <v>0.0</v>
@@ -6404,19 +6425,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B175">
-        <v>232919.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C175">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c s="1" r="D175">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E175">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c s="1" r="F175">
-        <v>63.0</v>
+        <v>384.0</v>
       </c>
       <c s="1" r="G175">
         <v>0.0</v>
@@ -6436,13 +6457,13 @@
         <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C176">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c s="1" r="D176">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E176">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c s="1" r="F176">
         <v>384.0</v>
@@ -6451,7 +6472,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H176">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I176">
         <v>0.0</v>
@@ -6462,25 +6483,25 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B177">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C177">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c s="1" r="D177">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E177">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c s="1" r="F177">
-        <v>384.0</v>
+        <v>4792.0</v>
       </c>
       <c s="1" r="G177">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H177">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="I177">
         <v>0.0</v>
@@ -6491,25 +6512,25 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B178">
-        <v>232681.0</v>
+        <v>442189.0</v>
       </c>
       <c t="s" s="1" r="C178">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c s="1" r="D178">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E178">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c s="1" r="F178">
-        <v>4792.0</v>
+        <v>645.0</v>
       </c>
       <c s="1" r="G178">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H178">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I178">
         <v>0.0</v>
@@ -6520,28 +6541,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B179">
-        <v>442189.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C179">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c s="1" r="D179">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E179">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c s="1" r="F179">
-        <v>645.0</v>
+        <v>4444.0</v>
       </c>
       <c s="1" r="G179">
         <v>0.0</v>
       </c>
       <c s="1" r="H179">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c s="1" r="I179">
-        <v>0.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="180">
@@ -6549,28 +6570,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B180">
-        <v>233374.0</v>
+        <v>442639.0</v>
       </c>
       <c t="s" s="1" r="C180">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c s="1" r="D180">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E180">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c s="1" r="F180">
-        <v>4444.0</v>
+        <v>64.0</v>
       </c>
       <c s="1" r="G180">
         <v>0.0</v>
       </c>
       <c s="1" r="H180">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I180">
-        <v>49.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="181">
@@ -6578,28 +6599,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B181">
-        <v>442639.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C181">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c s="1" r="D181">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E181">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c s="1" r="F181">
-        <v>64.0</v>
+        <v>23077.0</v>
       </c>
       <c s="1" r="G181">
         <v>0.0</v>
       </c>
       <c s="1" r="H181">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c s="1" r="I181">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="182">
@@ -6610,13 +6631,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C182">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c s="1" r="D182">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E182">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c s="1" r="F182">
         <v>23077.0</v>
@@ -6625,10 +6646,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H182">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I182">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="183">
@@ -6639,13 +6660,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C183">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c s="1" r="D183">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E183">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c s="1" r="F183">
         <v>23077.0</v>
@@ -6668,13 +6689,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C184">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c s="1" r="D184">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E184">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c s="1" r="F184">
         <v>23077.0</v>
@@ -6697,13 +6718,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C185">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c s="1" r="D185">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E185">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c s="1" r="F185">
         <v>23077.0</v>
@@ -6726,13 +6747,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C186">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c s="1" r="D186">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E186">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c s="1" r="F186">
         <v>23077.0</v>
@@ -6755,13 +6776,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C187">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c s="1" r="D187">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E187">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c s="1" r="F187">
         <v>23077.0</v>
@@ -6784,13 +6805,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C188">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c s="1" r="D188">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E188">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c s="1" r="F188">
         <v>23077.0</v>
@@ -6810,19 +6831,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B189">
-        <v>234076.0</v>
+        <v>377485.0</v>
       </c>
       <c t="s" s="1" r="C189">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c s="1" r="D189">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E189">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c s="1" r="F189">
-        <v>23077.0</v>
+        <v>23.0</v>
       </c>
       <c s="1" r="G189">
         <v>0.0</v>
@@ -6839,28 +6860,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B190">
-        <v>377485.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C190">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c s="1" r="D190">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E190">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c s="1" r="F190">
-        <v>23.0</v>
+        <v>26631.0</v>
       </c>
       <c s="1" r="G190">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="H190">
-        <v>0.0</v>
+        <v>51.0</v>
       </c>
       <c s="1" r="I190">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="191">
@@ -6871,25 +6892,25 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C191">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c s="1" r="D191">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E191">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c s="1" r="F191">
         <v>26631.0</v>
       </c>
       <c s="1" r="G191">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="H191">
-        <v>51.0</v>
+        <v>23.0</v>
       </c>
       <c s="1" r="I191">
-        <v>31.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="192">
@@ -6897,28 +6918,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B192">
-        <v>234030.0</v>
+        <v>233903.0</v>
       </c>
       <c t="s" s="1" r="C192">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c s="1" r="D192">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E192">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c s="1" r="F192">
-        <v>26631.0</v>
+        <v>2345.0</v>
       </c>
       <c s="1" r="G192">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H192">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I192">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="193">
@@ -6926,19 +6947,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B193">
-        <v>233903.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C193">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c s="1" r="D193">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E193">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c s="1" r="F193">
-        <v>2345.0</v>
+        <v>1124.0</v>
       </c>
       <c s="1" r="G193">
         <v>0.0</v>
@@ -6955,19 +6976,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B194">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C194">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c s="1" r="D194">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E194">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c s="1" r="F194">
-        <v>1124.0</v>
+        <v>1333.0</v>
       </c>
       <c s="1" r="G194">
         <v>0.0</v>
@@ -6976,7 +6997,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I194">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="195">
@@ -6984,28 +7005,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B195">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C195">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c s="1" r="D195">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E195">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c s="1" r="F195">
-        <v>1333.0</v>
+        <v>27755.0</v>
       </c>
       <c s="1" r="G195">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H195">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c s="1" r="I195">
-        <v>2.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="196">
@@ -7016,25 +7037,25 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C196">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c s="1" r="D196">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E196">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c s="1" r="F196">
         <v>27755.0</v>
       </c>
       <c s="1" r="G196">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H196">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I196">
-        <v>107.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="197">
@@ -7045,13 +7066,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C197">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c s="1" r="D197">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E197">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c s="1" r="F197">
         <v>27755.0</v>
@@ -7074,13 +7095,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C198">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c s="1" r="D198">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E198">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c s="1" r="F198">
         <v>27755.0</v>
@@ -7103,13 +7124,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C199">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c s="1" r="D199">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E199">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c s="1" r="F199">
         <v>27755.0</v>
@@ -7132,13 +7153,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C200">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c s="1" r="D200">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E200">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c s="1" r="F200">
         <v>27755.0</v>
@@ -7161,13 +7182,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C201">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c s="1" r="D201">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E201">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c s="1" r="F201">
         <v>27755.0</v>
@@ -7190,13 +7211,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C202">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c s="1" r="D202">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E202">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c s="1" r="F202">
         <v>27755.0</v>
@@ -7216,19 +7237,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B203">
-        <v>233921.0</v>
+        <v>234119.0</v>
       </c>
       <c t="s" s="1" r="C203">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c s="1" r="D203">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E203">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c s="1" r="F203">
-        <v>27755.0</v>
+        <v>100.0</v>
       </c>
       <c s="1" r="G203">
         <v>0.0</v>
@@ -7245,19 +7266,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B204">
-        <v>234119.0</v>
+        <v>430254.0</v>
       </c>
       <c t="s" s="1" r="C204">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c s="1" r="D204">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E204">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c s="1" r="F204">
-        <v>100.0</v>
+        <v>427.0</v>
       </c>
       <c s="1" r="G204">
         <v>0.0</v>
@@ -7274,28 +7295,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B205">
-        <v>430254.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C205">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c s="1" r="D205">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E205">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c s="1" r="F205">
-        <v>427.0</v>
+        <v>4933.0</v>
       </c>
       <c s="1" r="G205">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="H205">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c s="1" r="I205">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="206">
@@ -7303,28 +7324,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B206">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C206">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c s="1" r="D206">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E206">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c s="1" r="F206">
-        <v>4933.0</v>
+        <v>1961.0</v>
       </c>
       <c s="1" r="G206">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H206">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I206">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="207">
@@ -7332,19 +7353,16 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B207">
-        <v>234164.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C207">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c s="1" r="D207">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E207">
-        <v>419</v>
-      </c>
-      <c s="1" r="F207">
-        <v>1961.0</v>
+        <v>420</v>
       </c>
       <c s="1" r="G207">
         <v>0.0</v>
@@ -7361,16 +7379,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B208">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C208">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c s="1" r="D208">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E208">
-        <v>421</v>
+        <v>422</v>
+      </c>
+      <c s="1" r="F208">
+        <v>1429.0</v>
       </c>
       <c s="1" r="G208">
         <v>0.0</v>
@@ -7387,19 +7408,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B209">
-        <v>234173.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C209">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c s="1" r="D209">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E209">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c s="1" r="F209">
-        <v>1429.0</v>
+        <v>8124.0</v>
       </c>
       <c s="1" r="G209">
         <v>0.0</v>
@@ -7416,19 +7437,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B210">
-        <v>233949.0</v>
+        <v>234191.0</v>
       </c>
       <c t="s" s="1" r="C210">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c s="1" r="D210">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E210">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c s="1" r="F210">
-        <v>8124.0</v>
+        <v>109.0</v>
       </c>
       <c s="1" r="G210">
         <v>0.0</v>
@@ -7448,13 +7469,13 @@
         <v>234191.0</v>
       </c>
       <c t="s" s="1" r="C211">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c s="1" r="D211">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E211">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c s="1" r="F211">
         <v>109.0</v>
@@ -7474,19 +7495,16 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B212">
-        <v>234191.0</v>
+        <v>445683.0</v>
       </c>
       <c t="s" s="1" r="C212">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c s="1" r="D212">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E212">
-        <v>429</v>
-      </c>
-      <c s="1" r="F212">
-        <v>109.0</v>
+        <v>430</v>
       </c>
       <c s="1" r="G212">
         <v>0.0</v>
@@ -7503,16 +7521,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B213">
-        <v>445683.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C213">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c s="1" r="D213">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E213">
-        <v>431</v>
+        <v>432</v>
+      </c>
+      <c s="1" r="F213">
+        <v>2137.0</v>
       </c>
       <c s="1" r="G213">
         <v>0.0</v>
@@ -7529,19 +7550,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B214">
-        <v>234207.0</v>
+        <v>234225.0</v>
       </c>
       <c t="s" s="1" r="C214">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c s="1" r="D214">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E214">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c s="1" r="F214">
-        <v>2137.0</v>
+        <v>150.0</v>
       </c>
       <c s="1" r="G214">
         <v>0.0</v>
@@ -7558,19 +7579,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B215">
-        <v>234225.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C215">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c s="1" r="D215">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E215">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c s="1" r="F215">
-        <v>150.0</v>
+        <v>273.0</v>
       </c>
       <c s="1" r="G215">
         <v>0.0</v>
@@ -7587,19 +7608,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B216">
-        <v>234359.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C216">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c s="1" r="D216">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E216">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c s="1" r="F216">
-        <v>273.0</v>
+        <v>2948.0</v>
       </c>
       <c s="1" r="G216">
         <v>0.0</v>
@@ -7608,35 +7629,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I216">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c s="1" r="A217">
-        <v>2003.0</v>
-      </c>
-      <c s="1" r="B217">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C217">
-        <v>438</v>
-      </c>
-      <c s="1" r="D217">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E217">
-        <v>439</v>
-      </c>
-      <c s="1" r="F217">
-        <v>2948.0</v>
-      </c>
-      <c s="1" r="G217">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H217">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I217">
         <v>0.0</v>
       </c>
     </row>
